--- a/resources/pomXml.xlsx
+++ b/resources/pomXml.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -53,18 +53,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BG362"/>
+  <dimension ref="A1:BG363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -68569,7 +68569,194 @@
         <v>0</v>
       </c>
     </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>liferay</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>liferay-portal</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>Enterprise Resource Planning</t>
+        </is>
+      </c>
+      <c r="D363" t="inlineStr">
+        <is>
+          <t>38220df7f113ab58af84b3297d81db6bb40d3320</t>
+        </is>
+      </c>
+      <c r="E363" t="inlineStr"/>
+      <c r="F363" t="inlineStr">
+        <is>
+          <t>2024-10-12 00:30:11+00:00</t>
+        </is>
+      </c>
+      <c r="G363" t="b">
+        <v>1</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="n">
+        <v>0</v>
+      </c>
+      <c r="J363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K363" t="n">
+        <v>0</v>
+      </c>
+      <c r="L363" t="n">
+        <v>0</v>
+      </c>
+      <c r="M363" t="n">
+        <v>0</v>
+      </c>
+      <c r="N363" t="n">
+        <v>0</v>
+      </c>
+      <c r="O363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
+      <c r="R363" t="n">
+        <v>0</v>
+      </c>
+      <c r="S363" t="n">
+        <v>0</v>
+      </c>
+      <c r="T363" t="n">
+        <v>0</v>
+      </c>
+      <c r="U363" t="n">
+        <v>0</v>
+      </c>
+      <c r="V363" t="n">
+        <v>0</v>
+      </c>
+      <c r="W363" t="n">
+        <v>0</v>
+      </c>
+      <c r="X363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y363" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AC363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AG363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AJ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AN363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AS363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AW363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="AX363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY363" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE363" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF363" t="n">
+        <v>-1</v>
+      </c>
+      <c r="BG363" t="n">
+        <v>-1</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/pomXml.xlsx
+++ b/resources/pomXml.xlsx
@@ -561,7 +561,7 @@
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>GoogleCloudFilestore</t>
+          <t>GoogleCloudFirestore</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
@@ -4893,7 +4893,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -6018,10 +6018,8 @@
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>contrib/storage-jdbc/pom.xml</t>
-        </is>
+      <c r="J30" t="n">
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -6147,10 +6145,8 @@
           <t>metastore/rdbms-metastore/README.md</t>
         </is>
       </c>
-      <c r="AW30" t="inlineStr">
-        <is>
-          <t>contrib/storage-jdbc/pom.xml</t>
-        </is>
+      <c r="AW30" t="n">
+        <v>0</v>
       </c>
       <c r="AX30" t="inlineStr">
         <is>
@@ -9443,7 +9439,7 @@
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K48" t="n">
         <v>0</v>
@@ -19762,7 +19758,7 @@
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K103" t="n">
         <v>0</v>
@@ -24640,7 +24636,7 @@
         <v>0</v>
       </c>
       <c r="J129" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K129" t="n">
         <v>0</v>
@@ -24763,7 +24759,7 @@
         <v>10</v>
       </c>
       <c r="AW129" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX129" t="n">
         <v>0</v>
@@ -25207,7 +25203,7 @@
         <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K132" t="n">
         <v>0</v>
@@ -25330,7 +25326,7 @@
         <v>2</v>
       </c>
       <c r="AW132" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="AX132" t="n">
         <v>-1</v>
@@ -25784,7 +25780,7 @@
         <v>0</v>
       </c>
       <c r="J135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K135" t="n">
         <v>0</v>
@@ -25903,7 +25899,7 @@
         <v>3</v>
       </c>
       <c r="AW135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX135" t="n">
         <v>0</v>
@@ -31967,7 +31963,7 @@
         <v>0</v>
       </c>
       <c r="J168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K168" t="n">
         <v>0</v>
@@ -32084,7 +32080,7 @@
         <v>2</v>
       </c>
       <c r="AW168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX168" t="n">
         <v>0</v>
@@ -50578,7 +50574,7 @@
         <v>0</v>
       </c>
       <c r="J267" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K267" t="n">
         <v>0</v>
@@ -61071,10 +61067,8 @@
       <c r="I323" t="n">
         <v>0</v>
       </c>
-      <c r="J323" t="inlineStr">
-        <is>
-          <t>spring-batch-core/pom.xml</t>
-        </is>
+      <c r="J323" t="n">
+        <v>0</v>
       </c>
       <c r="K323" t="n">
         <v>0</v>
@@ -61200,10 +61194,8 @@
           <t>spring-batch-core/src/test/java/org/springframework/batch/core/test/repository/PostgreSQLJobRepositoryIntegrationTests.java</t>
         </is>
       </c>
-      <c r="AW323" t="inlineStr">
-        <is>
-          <t>spring-batch-core/pom.xml</t>
-        </is>
+      <c r="AW323" t="n">
+        <v>0</v>
       </c>
       <c r="AX323" t="n">
         <v>0</v>
@@ -67278,10 +67270,8 @@
       <c r="I356" t="n">
         <v>0</v>
       </c>
-      <c r="J356" t="inlineStr">
-        <is>
-          <t>testsuite/pom.xml</t>
-        </is>
+      <c r="J356" t="n">
+        <v>0</v>
       </c>
       <c r="K356" t="n">
         <v>0</v>
@@ -68606,7 +68596,7 @@
         <v>0</v>
       </c>
       <c r="J363" t="n">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="K363" t="n">
         <v>0</v>
